--- a/mainadminhtml/img/esop/uploadedby-Main_User_userid-1.xlsx
+++ b/mainadminhtml/img/esop/uploadedby-Main_User_userid-1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\drreddys\mainadminhtml\samplefile\ESOP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49D4F63-F3EC-4D6D-854C-525C8256EAD8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-60" windowWidth="20730" windowHeight="11100"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Employee Name</t>
   </si>
@@ -34,6 +40,9 @@
   </si>
   <si>
     <t>vinita mali</t>
+  </si>
+  <si>
+    <t>12345fdfd</t>
   </si>
   <si>
     <t>Date of Allotment(DD-MM-YYYY)</t>
@@ -42,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,18 +356,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,7 +390,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -389,27 +398,27 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4651561515</v>
+        <v>123456</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" s="1">
-        <v>44197</v>
+        <v>43831</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>1234567845</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
         <v>110</v>
       </c>
       <c r="D3" s="1">
-        <v>44197</v>
+        <v>43831</v>
       </c>
     </row>
   </sheetData>
